--- a/Docs/ISIS1225 - Tablas de Datos Lab 4.xlsx
+++ b/Docs/ISIS1225 - Tablas de Datos Lab 4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes.sharepoint.com/sites/ISIS1225/Documentos compartidos/General/2025-10/Laboratorios/Lab 04 - Pilas y colas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianlaraurquijo/Documents/GitHub/Laboratorio4-G03/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="13_ncr:1_{059725CA-9D74-4145-8FC3-28FE5756BBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CAB1D75-7132-4A69-A395-BC4C20E1FCBD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4199C323-37F0-9646-B334-6F28148B5490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15280" windowHeight="15720" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="01-Data Lab 4" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t>TIEMPOS PARA QUEUE [ms]</t>
   </si>
@@ -93,6 +93,75 @@
   </si>
   <si>
     <t xml:space="preserve">top(Linked List) </t>
+  </si>
+  <si>
+    <t>0.151</t>
+  </si>
+  <si>
+    <t>0.006</t>
+  </si>
+  <si>
+    <t>0.556</t>
+  </si>
+  <si>
+    <t>0.122</t>
+  </si>
+  <si>
+    <t>0.633</t>
+  </si>
+  <si>
+    <t>0.014</t>
+  </si>
+  <si>
+    <t>0.030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.878 </t>
+  </si>
+  <si>
+    <t>0.067</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
+    <t>0.079</t>
+  </si>
+  <si>
+    <t>0.121</t>
+  </si>
+  <si>
+    <t>0.322</t>
+  </si>
+  <si>
+    <t>0.336</t>
+  </si>
+  <si>
+    <t>0.007</t>
+  </si>
+  <si>
+    <t>0.533</t>
+  </si>
+  <si>
+    <t>0.621</t>
+  </si>
+  <si>
+    <t>0.155</t>
+  </si>
+  <si>
+    <t>0.012</t>
+  </si>
+  <si>
+    <t>0.212</t>
+  </si>
+  <si>
+    <t>0.133</t>
+  </si>
+  <si>
+    <t>0.276</t>
+  </si>
+  <si>
+    <t>0.004</t>
   </si>
 </sst>
 </file>
@@ -146,7 +215,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,8 +234,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -174,11 +255,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -200,11 +290,29 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="17">
     <dxf>
       <font>
         <b/>
@@ -221,6 +329,56 @@
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -269,6 +427,7 @@
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -293,182 +452,13 @@
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -567,6 +557,67 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -890,8 +941,32 @@
             <c:numRef>
               <c:f>'01-Data Lab 4'!$C$3:$C$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1414</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2464</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4568</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9574</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12284</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16661</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21079</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1027,8 +1102,32 @@
             <c:numRef>
               <c:f>'01-Data Lab 4'!$C$14:$C$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1059</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2092</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4480</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9656</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16035</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18936</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1567,8 +1666,32 @@
             <c:numRef>
               <c:f>'01-Data Lab 4'!$D$3:$D$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25342</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84145</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>233389</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>481467</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1314842</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3242715</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5586194</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1704,8 +1827,32 @@
             <c:numRef>
               <c:f>'01-Data Lab 4'!$D$14:$D$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1709</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3689</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7379</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11336</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15847</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24417</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29745</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2246,6 +2393,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2381,8 +2552,32 @@
             <c:numRef>
               <c:f>'01-Data Lab 4'!$E$14:$E$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2926,8 +3121,32 @@
             <c:numRef>
               <c:f>'01-Data Lab 4'!$F$3:$F$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1069</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2359</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5249</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9382</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14774</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14679</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3065,6 +3284,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0">
+                  <c:v>1266</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0">
+                  <c:v>2630</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0">
+                  <c:v>5615</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0">
+                  <c:v>8247</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="#,##0">
+                  <c:v>9915</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3608,8 +3851,32 @@
             <c:numRef>
               <c:f>'01-Data Lab 4'!$G$3:$G$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2452</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4062</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7546</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11790</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17030</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19382</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20768</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3745,8 +4012,32 @@
             <c:numRef>
               <c:f>'01-Data Lab 4'!$G$14:$G$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26651</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61629</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>237078</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>599618</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1575898</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3940290</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6190237</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4292,6 +4583,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4429,6 +4744,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -8185,7 +8524,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9305925" cy="6076950"/>
+    <xdr:ext cx="8674100" cy="6286500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -8380,7 +8719,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}" name="Table1" displayName="Table1" ref="A2:H10" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}" name="Table1" displayName="Table1" ref="A2:H10" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A2:H10" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -8392,13 +8731,13 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Porcentaje de la muestra [pct]" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Tamaño de la muestra (ARRAY_LIST)" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Porcentaje de la muestra [pct]" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Tamaño de la muestra (ARRAY_LIST)" dataDxfId="13">
       <calculatedColumnFormula>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{19B1D273-887B-4392-991E-015D36D99E5B}" name="enqueue (Array List) " dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{56471E76-DCC6-4EED-8237-BCC256B57E91}" name="dequeue (Array List) " dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{61DF25D7-A2A3-4D39-B0C6-29804C1B33DB}" name="peek (Array List) " dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{19B1D273-887B-4392-991E-015D36D99E5B}" name="enqueue (Array List) " dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{56471E76-DCC6-4EED-8237-BCC256B57E91}" name="dequeue (Array List) " dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{61DF25D7-A2A3-4D39-B0C6-29804C1B33DB}" name="peek (Array List) " dataDxfId="10"/>
     <tableColumn id="8" xr3:uid="{092BA754-1EE8-42B8-A0C9-8E5FBAFE3FD2}" name="push (Array List)" dataDxfId="5"/>
     <tableColumn id="9" xr3:uid="{F7FD567A-4A42-4CDC-9449-A0BA8E9714D3}" name="pop (Array List)" dataDxfId="4"/>
     <tableColumn id="11" xr3:uid="{91D17C3E-2CFC-4978-91FF-19ADDF3A1CD9}" name="top(Array List) " dataDxfId="3"/>
@@ -8408,7 +8747,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A13:H21" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A13:H21" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A13:H21" xr:uid="{5C24B5A8-1B8E-4092-B34A-66FF5413D106}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -8420,13 +8759,13 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{16584851-71BC-4FF5-B248-C3F46BA653AF}" name="Porcentaje de la muestra [pct]" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Tamaño de la muestra (LINKED_LIST)" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{16584851-71BC-4FF5-B248-C3F46BA653AF}" name="Porcentaje de la muestra [pct]" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Tamaño de la muestra (LINKED_LIST)" dataDxfId="6">
       <calculatedColumnFormula>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="enqueue (Linked List) " dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{A5E99D51-DD73-48A7-AE0D-601A8EE89AFA}" name="dequeue (Linked List)  " dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{EE99E4CD-A6F0-492B-B754-38221659D42F}" name="peek (Linked List)  " dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="enqueue (Linked List) "/>
+    <tableColumn id="4" xr3:uid="{A5E99D51-DD73-48A7-AE0D-601A8EE89AFA}" name="dequeue (Linked List)  "/>
+    <tableColumn id="5" xr3:uid="{EE99E4CD-A6F0-492B-B754-38221659D42F}" name="peek (Linked List)  "/>
     <tableColumn id="8" xr3:uid="{D4319BDE-1663-4E02-A459-D4E464B40376}" name="push (Linked List) " dataDxfId="2"/>
     <tableColumn id="9" xr3:uid="{D1102AA4-3669-4976-AB80-8CA1D8EED93A}" name="pop (Linked List) " dataDxfId="1"/>
     <tableColumn id="11" xr3:uid="{A75BD949-6BC0-4683-B105-18DE72DE82D5}" name="top(Linked List) " dataDxfId="0"/>
@@ -8732,19 +9071,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14742-4EBB-4241-AC8A-0E5F24F7BB7B}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="24.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="6" customWidth="1"/>
-    <col min="6" max="12" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="24.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="6" customWidth="1"/>
+    <col min="6" max="12" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
@@ -8759,7 +9098,7 @@
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" ht="30">
+    <row r="2" spans="1:8" s="5" customFormat="1" ht="32">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -8785,7 +9124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="5" customFormat="1">
+    <row r="3" spans="1:8" s="5" customFormat="1" ht="16">
       <c r="A3" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -8793,14 +9132,26 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>50</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" s="5" customFormat="1">
+    <row r="4" spans="1:8" s="5" customFormat="1" ht="16">
       <c r="A4" s="2">
         <v>0.05</v>
       </c>
@@ -8808,14 +9159,26 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>500</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="C4" s="9">
+        <v>1414</v>
+      </c>
+      <c r="D4" s="9">
+        <v>25342</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1069</v>
+      </c>
+      <c r="G4" s="9">
+        <v>2452</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="16">
       <c r="A5" s="2">
         <v>0.1</v>
       </c>
@@ -8823,14 +9186,26 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>1000</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="C5" s="9">
+        <v>2464</v>
+      </c>
+      <c r="D5" s="9">
+        <v>84145</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="9">
+        <v>2359</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4062</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" ht="16">
       <c r="A6" s="2">
         <v>0.2</v>
       </c>
@@ -8838,14 +9213,26 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>2000</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="C6" s="9">
+        <v>4568</v>
+      </c>
+      <c r="D6" s="9">
+        <v>233389</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="9">
+        <v>4666</v>
+      </c>
+      <c r="G6" s="9">
+        <v>7546</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="16">
       <c r="A7" s="2">
         <v>0.3</v>
       </c>
@@ -8853,14 +9240,26 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>3000</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="C7" s="9">
+        <v>9574</v>
+      </c>
+      <c r="D7" s="9">
+        <v>481467</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="9">
+        <v>5249</v>
+      </c>
+      <c r="G7" s="9">
+        <v>11790</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="16">
       <c r="A8" s="2">
         <v>0.5</v>
       </c>
@@ -8868,14 +9267,26 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>5000</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="C8" s="9">
+        <v>12284</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1314842</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="9">
+        <v>9382</v>
+      </c>
+      <c r="G8" s="9">
+        <v>17030</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="15" customHeight="1">
       <c r="A9" s="2">
         <v>0.8</v>
       </c>
@@ -8883,14 +9294,26 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>8000</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="C9" s="9">
+        <v>16661</v>
+      </c>
+      <c r="D9" s="9">
+        <v>3242715</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="9">
+        <v>14774</v>
+      </c>
+      <c r="G9" s="9">
+        <v>19382</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" ht="16">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -8898,12 +9321,24 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>10000</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="C10" s="9">
+        <v>21079</v>
+      </c>
+      <c r="D10" s="9">
+        <v>5586194</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="9">
+        <v>14679</v>
+      </c>
+      <c r="G10" s="9">
+        <v>20768</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="14.25" customHeight="1">
       <c r="C12" s="7" t="s">
@@ -8917,7 +9352,7 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" s="5" customFormat="1" ht="30">
+    <row r="13" spans="1:8" s="5" customFormat="1" ht="32">
       <c r="A13" s="4" t="s">
         <v>2</v>
       </c>
@@ -8943,7 +9378,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="5" customFormat="1">
+    <row r="14" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -8951,14 +9386,26 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>50</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="C14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="15" spans="1:8" s="5" customFormat="1">
+    <row r="15" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="2">
         <v>0.05</v>
       </c>
@@ -8966,14 +9413,26 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>500</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="C15" s="9">
+        <v>1059</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1709</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="9">
+        <v>26651</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" ht="16">
       <c r="A16" s="2">
         <v>0.1</v>
       </c>
@@ -8981,14 +9440,26 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>1000</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="C16" s="12">
+        <v>2092</v>
+      </c>
+      <c r="D16" s="12">
+        <v>3689</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1266</v>
+      </c>
+      <c r="G16" s="9">
+        <v>61629</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" ht="16">
       <c r="A17" s="2">
         <v>0.2</v>
       </c>
@@ -8996,14 +9467,26 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>2000</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="C17" s="9">
+        <v>4480</v>
+      </c>
+      <c r="D17" s="9">
+        <v>7379</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="9">
+        <v>2012</v>
+      </c>
+      <c r="G17" s="9">
+        <v>237078</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" ht="15" customHeight="1">
       <c r="A18" s="2">
         <v>0.3</v>
       </c>
@@ -9011,14 +9494,26 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>3000</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="C18" s="12">
+        <v>7016</v>
+      </c>
+      <c r="D18" s="12">
+        <v>11336</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="9">
+        <v>2630</v>
+      </c>
+      <c r="G18" s="9">
+        <v>599618</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" ht="15" customHeight="1">
       <c r="A19" s="2">
         <v>0.5</v>
       </c>
@@ -9026,14 +9521,26 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>5000</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="C19" s="9">
+        <v>9656</v>
+      </c>
+      <c r="D19" s="9">
+        <v>15847</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="9">
+        <v>5615</v>
+      </c>
+      <c r="G19" s="9">
+        <v>1575898</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" ht="16">
       <c r="A20" s="2">
         <v>0.8</v>
       </c>
@@ -9041,14 +9548,26 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>8000</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="C20" s="12">
+        <v>16035</v>
+      </c>
+      <c r="D20" s="12">
+        <v>24417</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="9">
+        <v>8247</v>
+      </c>
+      <c r="G20" s="9">
+        <v>3940290</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" ht="16">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -9056,12 +9575,33 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>10000</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
+      <c r="C21" s="13">
+        <v>18936</v>
+      </c>
+      <c r="D21" s="13">
+        <v>29745</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="9">
+        <v>9915</v>
+      </c>
+      <c r="G21" s="9">
+        <v>6190237</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="E26" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9080,116 +9620,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743">
-      <UserInfo>
-        <DisplayName>Carlos Andres Lozano Garzon</DisplayName>
-        <AccountId>13</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Dario Ernesto Correal Torres</DisplayName>
-        <AccountId>15</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Mario  Fernando De la rosa Rosero</DisplayName>
-        <AccountId>16</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Christian Camilo Aparicio Baquen</DisplayName>
-        <AccountId>50</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Arturo Henao Chaparro</DisplayName>
-        <AccountId>48</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Luis Esteban Florez Salamanca</DisplayName>
-        <AccountId>33</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Ivan David Salazar Cardenas</DisplayName>
-        <AccountId>52</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Juan Carlos Marin Morales</DisplayName>
-        <AccountId>53</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Sofia Duque Gomez</DisplayName>
-        <AccountId>60</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Andres Felipe Romero Brand</DisplayName>
-        <AccountId>91</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Lindsay Vanessa Pinto Morato</DisplayName>
-        <AccountId>92</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Miguel Angel Acosta Walteros</DisplayName>
-        <AccountId>94</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Juan David Diaz Ipuz</DisplayName>
-        <AccountId>90</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Lily Aitana valentina Duque Chavez</DisplayName>
-        <AccountId>17</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Isaac David Bermudez Lara</DisplayName>
-        <AccountId>95</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Daniel Alejandro Angel Fuertes</DisplayName>
-        <AccountId>55</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Jeniffer Liliam Mendoza Espinosa</DisplayName>
-        <AccountId>97</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Kevin Cohen Solano</DisplayName>
-        <AccountId>93</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Cesar Luis Moreno Gonzalez</DisplayName>
-        <AccountId>96</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Jose Cristobal Arroyo Castellanos</DisplayName>
-        <AccountId>54</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <TaxCatchAll xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="164883f8-7691-4ecf-b54a-664c0d0edefe">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9442,27 +9878,122 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743">
+      <UserInfo>
+        <DisplayName>Carlos Andres Lozano Garzon</DisplayName>
+        <AccountId>13</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Dario Ernesto Correal Torres</DisplayName>
+        <AccountId>15</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Mario  Fernando De la rosa Rosero</DisplayName>
+        <AccountId>16</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Christian Camilo Aparicio Baquen</DisplayName>
+        <AccountId>50</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Arturo Henao Chaparro</DisplayName>
+        <AccountId>48</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Luis Esteban Florez Salamanca</DisplayName>
+        <AccountId>33</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Ivan David Salazar Cardenas</DisplayName>
+        <AccountId>52</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Juan Carlos Marin Morales</DisplayName>
+        <AccountId>53</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Sofia Duque Gomez</DisplayName>
+        <AccountId>60</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Andres Felipe Romero Brand</DisplayName>
+        <AccountId>91</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Lindsay Vanessa Pinto Morato</DisplayName>
+        <AccountId>92</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Miguel Angel Acosta Walteros</DisplayName>
+        <AccountId>94</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Juan David Diaz Ipuz</DisplayName>
+        <AccountId>90</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Lily Aitana valentina Duque Chavez</DisplayName>
+        <AccountId>17</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Isaac David Bermudez Lara</DisplayName>
+        <AccountId>95</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Daniel Alejandro Angel Fuertes</DisplayName>
+        <AccountId>55</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Jeniffer Liliam Mendoza Espinosa</DisplayName>
+        <AccountId>97</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Kevin Cohen Solano</DisplayName>
+        <AccountId>93</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Cesar Luis Moreno Gonzalez</DisplayName>
+        <AccountId>96</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Jose Cristobal Arroyo Castellanos</DisplayName>
+        <AccountId>54</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <TaxCatchAll xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="164883f8-7691-4ecf-b54a-664c0d0edefe">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9487,9 +10018,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>